--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/116.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/116.xlsx
@@ -479,13 +479,13 @@
         <v>-16.35066352153666</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.84003315546182</v>
+        <v>-13.93576407384052</v>
       </c>
       <c r="F2" t="n">
-        <v>4.131561478530087</v>
+        <v>4.226978181640586</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.547760945710452</v>
+        <v>-9.544343854668762</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.48960543009377</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.42305958560956</v>
+        <v>-14.51536032064373</v>
       </c>
       <c r="F3" t="n">
-        <v>4.34973161308461</v>
+        <v>4.447950069003239</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.217730175676223</v>
+        <v>-9.215556853404497</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.5811116813372</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.04557240112796</v>
+        <v>-15.14087127351288</v>
       </c>
       <c r="F4" t="n">
-        <v>4.413962450826118</v>
+        <v>4.52100511886007</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.18918895548126</v>
+        <v>-9.193627246144604</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.61009428533847</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.65905152768556</v>
+        <v>-15.75669392227915</v>
       </c>
       <c r="F5" t="n">
-        <v>4.401577132337845</v>
+        <v>4.501549956837265</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.844913759955231</v>
+        <v>-8.847440574403684</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.58376324808467</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.31722777614481</v>
+        <v>-16.40329657502632</v>
       </c>
       <c r="F6" t="n">
-        <v>4.388432460284752</v>
+        <v>4.489609776645612</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.433160835582946</v>
+        <v>-8.428473791165608</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.50793098858386</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.85774349896547</v>
+        <v>-16.94657477374658</v>
       </c>
       <c r="F7" t="n">
-        <v>4.629173724938411</v>
+        <v>4.739384730260062</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.412213151036184</v>
+        <v>-8.418130871920644</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.38482735898232</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.85163257689226</v>
+        <v>-17.94617209571237</v>
       </c>
       <c r="F8" t="n">
-        <v>4.783401052413944</v>
+        <v>4.896073410669839</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.588772763805824</v>
+        <v>-7.571006508849601</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.20602928857987</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.47860986767968</v>
+        <v>-18.5720889099696</v>
       </c>
       <c r="F9" t="n">
-        <v>4.752450848496104</v>
+        <v>4.851899980881855</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.183657636974294</v>
+        <v>-7.168208719621057</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.97033769774323</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.21977822385264</v>
+        <v>-19.31268120481753</v>
       </c>
       <c r="F10" t="n">
-        <v>4.894240488271997</v>
+        <v>4.995993865957892</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.34077518002397</v>
+        <v>-6.305923469859295</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.66506256729819</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.08807284061875</v>
+        <v>-20.16912728751188</v>
       </c>
       <c r="F11" t="n">
-        <v>5.076144943954939</v>
+        <v>5.18279484290364</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.087648596882038</v>
+        <v>-6.060573714605348</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.2964053272024</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.03886205759058</v>
+        <v>-21.13234109988051</v>
       </c>
       <c r="F12" t="n">
-        <v>5.427961305917802</v>
+        <v>5.52806505344564</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.481501159915804</v>
+        <v>-5.455944984768755</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.85980033078623</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.70718484075217</v>
+        <v>-21.80250989774278</v>
       </c>
       <c r="F13" t="n">
-        <v>5.5599317185624</v>
+        <v>5.659223743314051</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.063477022482332</v>
+        <v>-5.051274996233844</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.37666129010474</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.51556907971455</v>
+        <v>-22.60661295367591</v>
       </c>
       <c r="F14" t="n">
-        <v>5.848040934897424</v>
+        <v>5.951993819460729</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.127298815481868</v>
+        <v>-4.104753869988416</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.85734295493637</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.51362150994501</v>
+        <v>-23.61270405785119</v>
       </c>
       <c r="F15" t="n">
-        <v>6.061576394245977</v>
+        <v>6.172782414583598</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.69944235861426</v>
+        <v>-3.6731922914166</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.31979935929134</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.17313317329412</v>
+        <v>-24.26394138580433</v>
       </c>
       <c r="F16" t="n">
-        <v>6.352094594303878</v>
+        <v>6.459687139057183</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.486011637688442</v>
+        <v>-3.472866965635349</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.78220243321931</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.04941409479369</v>
+        <v>-25.13450097096207</v>
       </c>
       <c r="F17" t="n">
-        <v>6.703073048884871</v>
+        <v>6.808492271366449</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.374897263470713</v>
+        <v>-3.364842374888267</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.25662175633855</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.78343405361506</v>
+        <v>-25.8611368709807</v>
       </c>
       <c r="F18" t="n">
-        <v>6.578879464128257</v>
+        <v>6.693908436895662</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.995940557716952</v>
+        <v>-2.991345159419506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.76214975698352</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.41827981841035</v>
+        <v>-26.49293212921388</v>
       </c>
       <c r="F19" t="n">
-        <v>6.693882252289979</v>
+        <v>6.802757842721773</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.605659010005098</v>
+        <v>-2.58709412457553</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.30232947276377</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.92565892273861</v>
+        <v>-26.99650137341519</v>
       </c>
       <c r="F20" t="n">
-        <v>6.914985062681049</v>
+        <v>7.027081359611907</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.362665869262662</v>
+        <v>-2.34929862806126</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.89281642363501</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.28089237574316</v>
+        <v>-27.34874978137183</v>
       </c>
       <c r="F21" t="n">
-        <v>6.874294185448965</v>
+        <v>6.988144850960614</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.152953362343894</v>
+        <v>-2.128536217544075</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.52807768448522</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.79361313963084</v>
+        <v>-27.86916881933044</v>
       </c>
       <c r="F22" t="n">
-        <v>6.914854139652632</v>
+        <v>7.036455448446583</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.187189734275008</v>
+        <v>-2.171073109476843</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.21007812760241</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.01180945879105</v>
+        <v>-28.08296612473583</v>
       </c>
       <c r="F23" t="n">
-        <v>6.939284376755293</v>
+        <v>7.05174725816572</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.260153138011947</v>
+        <v>-2.253188032900149</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.930793193576713</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.42261973735873</v>
+        <v>-28.48975706633109</v>
       </c>
       <c r="F24" t="n">
-        <v>7.14899688367406</v>
+        <v>7.26784880887125</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.577196343627185</v>
+        <v>-2.57457788305884</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.681041658401359</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.31922982181761</v>
+        <v>-28.38382724403869</v>
       </c>
       <c r="F25" t="n">
-        <v>7.122786093384925</v>
+        <v>7.239438511704704</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.473177997549671</v>
+        <v>-2.47604521187201</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.455200752884881</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.80124913554144</v>
+        <v>-28.86828172609108</v>
       </c>
       <c r="F26" t="n">
-        <v>7.130824767329745</v>
+        <v>7.248995892779164</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.561498672519956</v>
+        <v>-2.570126500092653</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.239706207868979</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.66089964907814</v>
+        <v>-28.72621714795551</v>
       </c>
       <c r="F27" t="n">
-        <v>7.316107037145852</v>
+        <v>7.444725820262969</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.640824935437974</v>
+        <v>-2.645865472032038</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.032762947228154</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.90370949758079</v>
+        <v>-28.96790105841377</v>
       </c>
       <c r="F28" t="n">
-        <v>7.123414523921328</v>
+        <v>7.249362477258733</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.802410137110557</v>
+        <v>-2.800747414649658</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.822616311921839</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.25148033796556</v>
+        <v>-29.33216820037912</v>
       </c>
       <c r="F29" t="n">
-        <v>7.177878503742908</v>
+        <v>7.308696793737435</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.911770142747495</v>
+        <v>-2.920018293537782</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.613730992507451</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.94916597304726</v>
+        <v>-29.02535008328327</v>
       </c>
       <c r="F30" t="n">
-        <v>7.020901792670613</v>
+        <v>7.151091652128737</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.894710872144726</v>
+        <v>-2.89413481081969</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.408066485901143</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.86280914350324</v>
+        <v>-28.93545833197198</v>
       </c>
       <c r="F31" t="n">
-        <v>6.971412887928889</v>
+        <v>7.103121454516653</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.806102166511924</v>
+        <v>-2.800956891495126</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.21165343657084</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.74383938758047</v>
+        <v>-28.81786326784759</v>
       </c>
       <c r="F32" t="n">
-        <v>7.061121347000396</v>
+        <v>7.183193978696649</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.317552977023952</v>
+        <v>-3.317710084658053</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.03906211674529</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.63809285752785</v>
+        <v>-28.71224766082339</v>
       </c>
       <c r="F33" t="n">
-        <v>7.2900795390965</v>
+        <v>7.426396596284553</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.62268218705322</v>
+        <v>-3.622119218031026</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.898844038999874</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.23868597473531</v>
+        <v>-28.31225162440298</v>
       </c>
       <c r="F34" t="n">
-        <v>7.249414846470099</v>
+        <v>7.374105938734699</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.823164620468571</v>
+        <v>-3.821685190247456</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.806018139060527</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.13854295029895</v>
+        <v>-28.22208493473201</v>
       </c>
       <c r="F35" t="n">
-        <v>7.19738603497708</v>
+        <v>7.319956174181319</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.079839217680611</v>
+        <v>-4.08392401616723</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.762996664862023</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.83308643269864</v>
+        <v>-27.91634038646918</v>
       </c>
       <c r="F36" t="n">
-        <v>7.369418894317361</v>
+        <v>7.492800756297787</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.287182017785027</v>
+        <v>-4.291855969899523</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.776237616022782</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.39259590358877</v>
+        <v>-27.47909674846405</v>
       </c>
       <c r="F37" t="n">
-        <v>7.075679987760394</v>
+        <v>7.18926880721521</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.680435518241953</v>
+        <v>-4.681509087074974</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.842306056111607</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.19715400676748</v>
+        <v>-27.28560560476618</v>
       </c>
       <c r="F38" t="n">
-        <v>7.450407879696278</v>
+        <v>7.568605189751381</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.694025328591665</v>
+        <v>-4.693645651809255</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.953018479019894</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.87078908152893</v>
+        <v>-26.95082232880041</v>
       </c>
       <c r="F39" t="n">
-        <v>7.347738040811462</v>
+        <v>7.457032584934192</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.861593712662916</v>
+        <v>-4.863020773672664</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.102211738885584</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.51520213634765</v>
+        <v>-26.61000350122459</v>
       </c>
       <c r="F40" t="n">
-        <v>7.454990185690883</v>
+        <v>7.563237345586273</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.949704910787733</v>
+        <v>-4.961540352556653</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.274369184551549</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.23257859490331</v>
+        <v>-26.34093049322144</v>
       </c>
       <c r="F41" t="n">
-        <v>7.559152547099655</v>
+        <v>7.663236354691377</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.321447757675703</v>
+        <v>-5.332013246068976</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.46083692197279</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.52095956624413</v>
+        <v>-25.6177771457587</v>
       </c>
       <c r="F42" t="n">
-        <v>7.528176158576131</v>
+        <v>7.633385904212242</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.399294590372606</v>
+        <v>-5.411679908860879</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.645942400631016</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.02792962583041</v>
+        <v>-25.12180143720559</v>
       </c>
       <c r="F43" t="n">
-        <v>7.470465287649803</v>
+        <v>7.580597739154402</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.428883194794907</v>
+        <v>-5.439082098708612</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.821896631064231</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.73796130249186</v>
+        <v>-24.8356167893883</v>
       </c>
       <c r="F44" t="n">
-        <v>7.677873549268427</v>
+        <v>7.780621941970293</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.470634548557172</v>
+        <v>-5.478699407107674</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.978786496509711</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.19748485657973</v>
+        <v>-24.2938965747062</v>
       </c>
       <c r="F45" t="n">
-        <v>7.607620252219725</v>
+        <v>7.71089233703526</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.52182545266832</v>
+        <v>-5.53434169418501</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.110520350267475</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.82095022685169</v>
+        <v>-23.92335821967967</v>
       </c>
       <c r="F46" t="n">
-        <v>7.49843044651973</v>
+        <v>7.602226223448934</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.422297766465519</v>
+        <v>-5.424156873469044</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.216984022850211</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.34783367906023</v>
+        <v>-23.45144616374965</v>
       </c>
       <c r="F47" t="n">
-        <v>7.68002068693447</v>
+        <v>7.785727940078567</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.558248239174002</v>
+        <v>-5.56407431393857</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.293744548111572</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.60326132414843</v>
+        <v>-22.69482889022346</v>
       </c>
       <c r="F48" t="n">
-        <v>7.693584312678498</v>
+        <v>7.808377623994752</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.820644172727876</v>
+        <v>-5.824742063517337</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.34744516198924</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.30476991165992</v>
+        <v>-22.40217664480236</v>
       </c>
       <c r="F49" t="n">
-        <v>7.752264014015115</v>
+        <v>7.867162063754102</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.669310244180364</v>
+        <v>-5.652827034902631</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.378434294581279</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.82933602626548</v>
+        <v>-21.93165237297357</v>
       </c>
       <c r="F50" t="n">
-        <v>7.67342216630224</v>
+        <v>7.791619476357343</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.712724320403528</v>
+        <v>-5.700064063555579</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.39548314922895</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.26990192583852</v>
+        <v>-21.36441526005294</v>
       </c>
       <c r="F51" t="n">
-        <v>7.748729092247848</v>
+        <v>7.856740590692088</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.829298184906257</v>
+        <v>-5.814045652095646</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.40129044211467</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.93066726690656</v>
+        <v>-21.02635890837673</v>
       </c>
       <c r="F52" t="n">
-        <v>7.482981529166493</v>
+        <v>7.580466816125985</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.955507984300496</v>
+        <v>-5.942284758430353</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.404010284801229</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.20301016726626</v>
+        <v>-20.29692125554996</v>
       </c>
       <c r="F53" t="n">
-        <v>7.653181466108932</v>
+        <v>7.759857549663315</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.998057968536106</v>
+        <v>-5.980776128785028</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.410263173239471</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.27967550935353</v>
+        <v>-19.36495877006454</v>
       </c>
       <c r="F54" t="n">
-        <v>7.564468022053395</v>
+        <v>7.674312442895477</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.033014417123515</v>
+        <v>-6.006842903742904</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.421319871692527</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.8910304994969</v>
+        <v>-18.97588171421412</v>
       </c>
       <c r="F55" t="n">
-        <v>7.526657451446491</v>
+        <v>7.630688889826846</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.478532390524611</v>
+        <v>-6.461577858344576</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.445301051224741</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.76454576174298</v>
+        <v>-18.85486955904805</v>
       </c>
       <c r="F56" t="n">
-        <v>7.26352834893348</v>
+        <v>7.363082219741965</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.371607553216235</v>
+        <v>-6.338549488540876</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.479028600689412</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.46656494906529</v>
+        <v>-18.5606331449831</v>
       </c>
       <c r="F57" t="n">
-        <v>7.274054560418228</v>
+        <v>7.371854062645922</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.273480743417498</v>
+        <v>-6.239257463789225</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.523971380370201</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.87766007494161</v>
+        <v>-17.95515341546179</v>
       </c>
       <c r="F58" t="n">
-        <v>7.022184838349101</v>
+        <v>7.109719975148883</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.451130200676879</v>
+        <v>-6.427721163195872</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.570613215012012</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.36594741837275</v>
+        <v>-17.45610101574088</v>
       </c>
       <c r="F59" t="n">
-        <v>7.088903213630538</v>
+        <v>7.192384775291541</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.561563775146838</v>
+        <v>-6.539909106246623</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.615278686117295</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.09752902551168</v>
+        <v>-17.17892387227869</v>
       </c>
       <c r="F60" t="n">
-        <v>7.224801317127654</v>
+        <v>7.3304300164547</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.923487394903513</v>
+        <v>-6.911717414648802</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.647672707671537</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.7353828366067</v>
+        <v>-16.82413555757076</v>
       </c>
       <c r="F61" t="n">
-        <v>7.01291548793716</v>
+        <v>7.10841074486471</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.724445114800752</v>
+        <v>-6.699150785710537</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.659763840894827</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.33419540062769</v>
+        <v>-16.41594373957142</v>
       </c>
       <c r="F62" t="n">
-        <v>7.011815734498454</v>
+        <v>7.107782314328307</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.714625887669457</v>
+        <v>-6.682327176558919</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.645518430069021</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.82769348058983</v>
+        <v>-15.90030339215004</v>
       </c>
       <c r="F63" t="n">
-        <v>6.912183309872919</v>
+        <v>7.006133675065145</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.720543608553918</v>
+        <v>-6.692224957507264</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.595662663990341</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.61833446584779</v>
+        <v>-15.69432219154117</v>
       </c>
       <c r="F64" t="n">
-        <v>6.72051199627005</v>
+        <v>6.813598269474722</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.469092840175726</v>
+        <v>-6.440839650643282</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.508072446994593</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.3779597856737</v>
+        <v>-15.45114575855895</v>
       </c>
       <c r="F65" t="n">
-        <v>6.68448197884962</v>
+        <v>6.774242807132493</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.559979606502989</v>
+        <v>-6.530940878800041</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.375750051204058</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.98464082370256</v>
+        <v>-15.05392529034098</v>
       </c>
       <c r="F66" t="n">
-        <v>6.691185237904583</v>
+        <v>6.78461191098314</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.641426822481367</v>
+        <v>-6.613671140456908</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.202191314868001</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.87013554304883</v>
+        <v>-14.93343682728857</v>
       </c>
       <c r="F67" t="n">
-        <v>6.644105316885737</v>
+        <v>6.737296328513143</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.604310143925074</v>
+        <v>-6.580154845182089</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.984208242898868</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.49820940392107</v>
+        <v>-14.55416590626661</v>
       </c>
       <c r="F68" t="n">
-        <v>6.356022285156396</v>
+        <v>6.446647205426824</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.455673229762957</v>
+        <v>-6.429593362502239</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.729080642974701</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.66114311278635</v>
+        <v>-14.71683776907506</v>
       </c>
       <c r="F69" t="n">
-        <v>6.339552168181505</v>
+        <v>6.432010010849774</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.362809525706594</v>
+        <v>-6.335590628098646</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.439352198945823</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.52637094733362</v>
+        <v>-14.58722397094197</v>
       </c>
       <c r="F70" t="n">
-        <v>6.286554526278198</v>
+        <v>6.379562245665819</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.453709384336698</v>
+        <v>-6.429894485467599</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.120414036869345</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.50768823117848</v>
+        <v>-14.57222019188535</v>
       </c>
       <c r="F71" t="n">
-        <v>6.384668243774093</v>
+        <v>6.488673497548764</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.299796272129367</v>
+        <v>-6.279254448970699</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.779888553405201</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.46063449476532</v>
+        <v>-14.5253890246205</v>
       </c>
       <c r="F72" t="n">
-        <v>6.000356786158066</v>
+        <v>6.097266011792522</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.393249129813608</v>
+        <v>-6.375574520977278</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.422122359437684</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.69805031449718</v>
+        <v>-14.76719076580433</v>
       </c>
       <c r="F73" t="n">
-        <v>5.960477631702168</v>
+        <v>6.052464151468135</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.10951274262772</v>
+        <v>-6.099758977010634</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.058692183296832</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.8430475684693</v>
+        <v>-14.91334014242652</v>
       </c>
       <c r="F74" t="n">
-        <v>5.889491165694329</v>
+        <v>5.981556239277347</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.875435460120499</v>
+        <v>-5.862775203272551</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.691624245370858</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.10905697760749</v>
+        <v>-15.18275355030356</v>
       </c>
       <c r="F75" t="n">
-        <v>5.610546561348514</v>
+        <v>5.694389668746927</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.679456778882702</v>
+        <v>-5.666181183801192</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.334967744241228</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.22213519725147</v>
+        <v>-15.29337041701331</v>
       </c>
       <c r="F76" t="n">
-        <v>5.630342123245204</v>
+        <v>5.718662798215488</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.419980428862533</v>
+        <v>-5.395851314725232</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.99200695520215</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.4251837220238</v>
+        <v>-15.48843263705218</v>
       </c>
       <c r="F77" t="n">
-        <v>5.56857263843794</v>
+        <v>5.657181344070742</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.40501592671444</v>
+        <v>-5.381384320085125</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.671675862897946</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.83400397055954</v>
+        <v>-15.90539629795547</v>
       </c>
       <c r="F78" t="n">
-        <v>5.377555939977157</v>
+        <v>5.453072342768233</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.927526549773849</v>
+        <v>-4.896497792038958</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.379628185398405</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.08207692480457</v>
+        <v>-16.14871674626895</v>
       </c>
       <c r="F79" t="n">
-        <v>4.967400276551563</v>
+        <v>5.037705942811631</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.029214465945535</v>
+        <v>-5.001956291429062</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.119377003199316</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.68847311552479</v>
+        <v>-16.7675768092945</v>
       </c>
       <c r="F80" t="n">
-        <v>5.160485558861338</v>
+        <v>5.236708946005868</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.930289025673453</v>
+        <v>-4.895293300177519</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.896411696163574</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.29006443110211</v>
+        <v>-17.36253032733106</v>
       </c>
       <c r="F81" t="n">
-        <v>4.829171743148619</v>
+        <v>4.89562827237322</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.881376182256765</v>
+        <v>-4.846877964268816</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.70806114662354</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.97418962379366</v>
+        <v>-18.05523097838395</v>
       </c>
       <c r="F82" t="n">
-        <v>4.994056205137317</v>
+        <v>5.081486603514364</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.77424186810292</v>
+        <v>-4.746590924501195</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.557707347044048</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.7639566081151</v>
+        <v>-18.84811393078172</v>
       </c>
       <c r="F83" t="n">
-        <v>4.828202912738331</v>
+        <v>4.901493624046314</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.691707990988679</v>
+        <v>-4.664397447260838</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.438701403197181</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.65508420103719</v>
+        <v>-19.74041983095956</v>
       </c>
       <c r="F84" t="n">
-        <v>4.893742980764012</v>
+        <v>4.970359136993793</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.5529033962607</v>
+        <v>-4.537389017393254</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.348769997721837</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.71961934509793</v>
+        <v>-20.8050466211402</v>
       </c>
       <c r="F85" t="n">
-        <v>4.626110126073447</v>
+        <v>4.697384622743804</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.288163940498157</v>
+        <v>-4.270397685541934</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.281494733127155</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.86219770639821</v>
+        <v>-21.95579457941371</v>
       </c>
       <c r="F86" t="n">
-        <v>4.546744586246904</v>
+        <v>4.618568959636613</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.054963842281332</v>
+        <v>-4.047187014393346</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.229671939893322</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.02260778416892</v>
+        <v>-23.11651887245262</v>
       </c>
       <c r="F87" t="n">
-        <v>4.44538397764626</v>
+        <v>4.514904105735826</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.975637579363314</v>
+        <v>-3.965203013998458</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.18899165046862</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.3077351388099</v>
+        <v>-24.40004896614692</v>
       </c>
       <c r="F88" t="n">
-        <v>4.256540601457203</v>
+        <v>4.331245281472093</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.120045679707552</v>
+        <v>-4.121079971632049</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.152735564927936</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.0458823563803</v>
+        <v>-26.13684767652461</v>
       </c>
       <c r="F89" t="n">
-        <v>4.282437176478138</v>
+        <v>4.358791486651084</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.148181038514421</v>
+        <v>-4.151729052584529</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.121329330110964</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.65321128395617</v>
+        <v>-27.75610369198929</v>
       </c>
       <c r="F90" t="n">
-        <v>3.988541162287071</v>
+        <v>4.059710920534694</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.228148824271684</v>
+        <v>-4.231762299856</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.093437018912653</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.22338425606722</v>
+        <v>-29.32755970977883</v>
       </c>
       <c r="F91" t="n">
-        <v>3.638610091933417</v>
+        <v>3.703731206268162</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.189186131014707</v>
+        <v>-4.193742252403628</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.074518740115217</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.87277875267355</v>
+        <v>-30.97167800833995</v>
       </c>
       <c r="F92" t="n">
-        <v>3.29988603281228</v>
+        <v>3.357884934401127</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.386133642662792</v>
+        <v>-4.395101870109375</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.071149584220455</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.97844000331403</v>
+        <v>-33.07943402743511</v>
       </c>
       <c r="F93" t="n">
-        <v>3.117431700409985</v>
+        <v>3.17291687985322</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.767054193842813</v>
+        <v>-4.784401495108099</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.088282383829662</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.04203568492406</v>
+        <v>-35.14987698343135</v>
       </c>
       <c r="F94" t="n">
-        <v>2.994390238303444</v>
+        <v>3.044559942792938</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.9901077573573</v>
+        <v>-5.01567702480719</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.134122236825172</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.07871359189149</v>
+        <v>-37.17804489355166</v>
       </c>
       <c r="F95" t="n">
-        <v>2.622437914570006</v>
+        <v>2.669674943222954</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.27932981943387</v>
+        <v>-5.316302482658904</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.212343347920872</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.57947435768958</v>
+        <v>-39.68313921159037</v>
       </c>
       <c r="F96" t="n">
-        <v>2.291647790970956</v>
+        <v>2.340220234513759</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.633502795908243</v>
+        <v>-5.68186576260558</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.322647450691943</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.73654908158953</v>
+        <v>-41.83627315233496</v>
       </c>
       <c r="F97" t="n">
-        <v>2.039437669027945</v>
+        <v>2.077588639508734</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.163610137969732</v>
+        <v>-6.214408272995629</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.464916138680481</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.09756260685504</v>
+        <v>-44.20508969009414</v>
       </c>
       <c r="F98" t="n">
-        <v>1.449760349036602</v>
+        <v>1.481731752576097</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.401052142307276</v>
+        <v>-6.458213136514252</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.624731158897594</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.29633631530589</v>
+        <v>-46.40009281532657</v>
       </c>
       <c r="F99" t="n">
-        <v>1.199919933907944</v>
+        <v>1.227570877509669</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.559482098995003</v>
+        <v>-6.600605022220865</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.803254188076675</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.6296465277583</v>
+        <v>-48.74179519390053</v>
       </c>
       <c r="F100" t="n">
-        <v>1.00814388188234</v>
+        <v>1.028345305167124</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.805276992545569</v>
+        <v>-6.856284604416933</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.965842752714486</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.76018315379807</v>
+        <v>-50.86793280618548</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7997667898534283</v>
+        <v>0.8167213220334635</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.977322944188691</v>
+        <v>-7.03670962987876</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.135013741748752</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.34566421128498</v>
+        <v>-53.44921123446019</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3332880396027285</v>
+        <v>0.3348329313380521</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.321585047411878</v>
+        <v>-7.382267871083278</v>
       </c>
     </row>
   </sheetData>
